--- a/br-se-covid19-casos-obitos/input/casos_obitos_sergipe.xlsx
+++ b/br-se-covid19-casos-obitos/input/casos_obitos_sergipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/dadosabertossergipe/covid19/br-se-covid19-casos-obitos/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF71AB60-81EB-E341-8FE7-99BF36C8A8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89898FEB-803A-CD4B-AFF6-E4F6ABD5D9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="26740" windowHeight="13400" xr2:uid="{E21C5369-0FE3-0A48-82AA-E24CCCB2F14B}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -93,7 +93,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,7 +411,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -442,7 +442,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44283</v>
+        <v>44648</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44284</v>
+        <v>44649</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44285</v>
+        <v>44650</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44286</v>
+        <v>44651</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44287</v>
+        <v>44652</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44288</v>
+        <v>44653</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44289</v>
+        <v>44654</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44290</v>
+        <v>44655</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44291</v>
+        <v>44656</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44292</v>
+        <v>44657</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44293</v>
+        <v>44658</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44294</v>
+        <v>44659</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44295</v>
+        <v>44660</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44296</v>
+        <v>44661</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44297</v>
+        <v>44662</v>
       </c>
       <c r="B16">
         <v>0</v>

--- a/br-se-covid19-casos-obitos/input/casos_obitos_sergipe.xlsx
+++ b/br-se-covid19-casos-obitos/input/casos_obitos_sergipe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/dadosabertossergipe/covid19/br-se-covid19-casos-obitos/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89898FEB-803A-CD4B-AFF6-E4F6ABD5D9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6845F45-C16F-7F4C-BB19-A1BF81B478C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="26740" windowHeight="13400" xr2:uid="{E21C5369-0FE3-0A48-82AA-E24CCCB2F14B}"/>
   </bookViews>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9C9ECB-EE57-9143-A29C-BA511C905A26}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -740,6 +740,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>44663</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>326803</v>
+      </c>
+      <c r="D17">
+        <v>6337</v>
+      </c>
+      <c r="E17">
+        <v>29</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/br-se-covid19-casos-obitos/input/casos_obitos_sergipe.xlsx
+++ b/br-se-covid19-casos-obitos/input/casos_obitos_sergipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/dadosabertossergipe/covid19/br-se-covid19-casos-obitos/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6845F45-C16F-7F4C-BB19-A1BF81B478C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CCECE9-5402-524C-9AC4-81F231E0A2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="26740" windowHeight="13400" xr2:uid="{E21C5369-0FE3-0A48-82AA-E24CCCB2F14B}"/>
   </bookViews>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9C9ECB-EE57-9143-A29C-BA511C905A26}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -760,6 +760,26 @@
         <v>2</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>44664</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>326834</v>
+      </c>
+      <c r="D18">
+        <v>6338</v>
+      </c>
+      <c r="E18">
+        <v>31</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/br-se-covid19-casos-obitos/input/casos_obitos_sergipe.xlsx
+++ b/br-se-covid19-casos-obitos/input/casos_obitos_sergipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/dadosabertossergipe/covid19/br-se-covid19-casos-obitos/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CCECE9-5402-524C-9AC4-81F231E0A2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A18931-C8B2-ED45-818A-E880A56BDA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="26740" windowHeight="13400" xr2:uid="{E21C5369-0FE3-0A48-82AA-E24CCCB2F14B}"/>
   </bookViews>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9C9ECB-EE57-9143-A29C-BA511C905A26}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -780,6 +780,186 @@
         <v>1</v>
       </c>
     </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>44665</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>326862</v>
+      </c>
+      <c r="D19">
+        <v>6338</v>
+      </c>
+      <c r="E19">
+        <v>28</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>44666</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>326879</v>
+      </c>
+      <c r="D20">
+        <v>6339</v>
+      </c>
+      <c r="E20">
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>44667</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>326894</v>
+      </c>
+      <c r="D21">
+        <v>6339</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>44668</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>326902</v>
+      </c>
+      <c r="D22">
+        <v>6339</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>44669</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>326909</v>
+      </c>
+      <c r="D23">
+        <v>6339</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>44670</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>326928</v>
+      </c>
+      <c r="D24">
+        <v>6340</v>
+      </c>
+      <c r="E24">
+        <v>19</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>326949</v>
+      </c>
+      <c r="D25">
+        <v>6341</v>
+      </c>
+      <c r="E25">
+        <v>21</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>44672</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>326970</v>
+      </c>
+      <c r="D26">
+        <v>6341</v>
+      </c>
+      <c r="E26">
+        <v>21</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>44673</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>326989</v>
+      </c>
+      <c r="D27">
+        <v>6342</v>
+      </c>
+      <c r="E27">
+        <v>19</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/br-se-covid19-casos-obitos/input/casos_obitos_sergipe.xlsx
+++ b/br-se-covid19-casos-obitos/input/casos_obitos_sergipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/dadosabertossergipe/covid19/br-se-covid19-casos-obitos/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A18931-C8B2-ED45-818A-E880A56BDA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820F24C3-9FD3-8646-B1EE-2C1EF3CB2155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="26740" windowHeight="13400" xr2:uid="{E21C5369-0FE3-0A48-82AA-E24CCCB2F14B}"/>
   </bookViews>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9C9ECB-EE57-9143-A29C-BA511C905A26}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -960,6 +960,86 @@
         <v>1</v>
       </c>
     </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>44674</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>327005</v>
+      </c>
+      <c r="D28">
+        <v>6342</v>
+      </c>
+      <c r="E28">
+        <v>16</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>44675</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>327016</v>
+      </c>
+      <c r="D29">
+        <v>6342</v>
+      </c>
+      <c r="E29">
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>44676</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>327026</v>
+      </c>
+      <c r="D30">
+        <v>6342</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>44677</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>327037</v>
+      </c>
+      <c r="D31">
+        <v>6342</v>
+      </c>
+      <c r="E31">
+        <v>11</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/br-se-covid19-casos-obitos/input/casos_obitos_sergipe.xlsx
+++ b/br-se-covid19-casos-obitos/input/casos_obitos_sergipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/dadosabertossergipe/covid19/br-se-covid19-casos-obitos/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820F24C3-9FD3-8646-B1EE-2C1EF3CB2155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC350DD-AB22-0F46-99BE-4A6C91DB0236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="26740" windowHeight="13400" xr2:uid="{E21C5369-0FE3-0A48-82AA-E24CCCB2F14B}"/>
   </bookViews>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9C9ECB-EE57-9143-A29C-BA511C905A26}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1040,6 +1040,86 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>44678</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>327052</v>
+      </c>
+      <c r="D32">
+        <v>6342</v>
+      </c>
+      <c r="E32">
+        <v>15</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>44679</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>327065</v>
+      </c>
+      <c r="D33">
+        <v>6342</v>
+      </c>
+      <c r="E33">
+        <v>13</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>44680</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>327071</v>
+      </c>
+      <c r="D34">
+        <v>6343</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>44681</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>327076</v>
+      </c>
+      <c r="D35">
+        <v>6343</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/br-se-covid19-casos-obitos/input/casos_obitos_sergipe.xlsx
+++ b/br-se-covid19-casos-obitos/input/casos_obitos_sergipe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/dadosabertossergipe/covid19/br-se-covid19-casos-obitos/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC350DD-AB22-0F46-99BE-4A6C91DB0236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD0AE15-4FB9-1749-A2BB-659E044ED8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="26740" windowHeight="13400" xr2:uid="{E21C5369-0FE3-0A48-82AA-E24CCCB2F14B}"/>
   </bookViews>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9C9ECB-EE57-9143-A29C-BA511C905A26}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1120,6 +1120,266 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>327081</v>
+      </c>
+      <c r="D36">
+        <v>6343</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>44683</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>327089</v>
+      </c>
+      <c r="D37">
+        <v>6343</v>
+      </c>
+      <c r="E37">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>327099</v>
+      </c>
+      <c r="D38">
+        <v>6344</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>327106</v>
+      </c>
+      <c r="D39">
+        <v>6344</v>
+      </c>
+      <c r="E39">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>327114</v>
+      </c>
+      <c r="D40">
+        <v>6344</v>
+      </c>
+      <c r="E40">
+        <v>13</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>327132</v>
+      </c>
+      <c r="D41">
+        <v>6344</v>
+      </c>
+      <c r="E41">
+        <v>18</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>327144</v>
+      </c>
+      <c r="D42">
+        <v>6344</v>
+      </c>
+      <c r="E42">
+        <v>12</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>327157</v>
+      </c>
+      <c r="D43">
+        <v>6344</v>
+      </c>
+      <c r="E43">
+        <v>13</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>327167</v>
+      </c>
+      <c r="D44">
+        <v>6345</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>327179</v>
+      </c>
+      <c r="D45">
+        <v>6345</v>
+      </c>
+      <c r="E45">
+        <v>12</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>327198</v>
+      </c>
+      <c r="D46">
+        <v>6345</v>
+      </c>
+      <c r="E46">
+        <v>19</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>44693</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>327218</v>
+      </c>
+      <c r="D47">
+        <v>6345</v>
+      </c>
+      <c r="E47">
+        <v>20</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>327238</v>
+      </c>
+      <c r="D48">
+        <v>6345</v>
+      </c>
+      <c r="E48">
+        <v>20</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/br-se-covid19-casos-obitos/input/casos_obitos_sergipe.xlsx
+++ b/br-se-covid19-casos-obitos/input/casos_obitos_sergipe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/dadosabertossergipe/covid19/br-se-covid19-casos-obitos/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD0AE15-4FB9-1749-A2BB-659E044ED8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904E1971-AD3C-3446-B0FC-A54AE0E846BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="26740" windowHeight="13400" xr2:uid="{E21C5369-0FE3-0A48-82AA-E24CCCB2F14B}"/>
   </bookViews>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9C9ECB-EE57-9143-A29C-BA511C905A26}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1380,6 +1380,246 @@
         <v>0</v>
       </c>
     </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>44695</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>327254</v>
+      </c>
+      <c r="D49">
+        <v>6345</v>
+      </c>
+      <c r="E49">
+        <v>16</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>44696</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>327271</v>
+      </c>
+      <c r="D50">
+        <v>6345</v>
+      </c>
+      <c r="E50">
+        <v>17</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>44697</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>327284</v>
+      </c>
+      <c r="D51">
+        <v>6345</v>
+      </c>
+      <c r="E51">
+        <v>13</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>44698</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>327298</v>
+      </c>
+      <c r="D52">
+        <v>6346</v>
+      </c>
+      <c r="E52">
+        <v>14</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>44699</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>327314</v>
+      </c>
+      <c r="D53">
+        <v>6346</v>
+      </c>
+      <c r="E53">
+        <v>16</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>44700</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>327335</v>
+      </c>
+      <c r="D54">
+        <v>6346</v>
+      </c>
+      <c r="E54">
+        <v>21</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>44701</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>327349</v>
+      </c>
+      <c r="D55">
+        <v>6346</v>
+      </c>
+      <c r="E55">
+        <v>14</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>44702</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>327363</v>
+      </c>
+      <c r="D56">
+        <v>6346</v>
+      </c>
+      <c r="E56">
+        <v>14</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>44703</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>327373</v>
+      </c>
+      <c r="D57">
+        <v>6346</v>
+      </c>
+      <c r="E57">
+        <v>10</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>44704</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>327379</v>
+      </c>
+      <c r="D58">
+        <v>6346</v>
+      </c>
+      <c r="E58">
+        <v>6</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>44705</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>327397</v>
+      </c>
+      <c r="D59">
+        <v>6347</v>
+      </c>
+      <c r="E59">
+        <v>18</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>44706</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>327411</v>
+      </c>
+      <c r="D60">
+        <v>6347</v>
+      </c>
+      <c r="E60">
+        <v>14</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/br-se-covid19-casos-obitos/input/casos_obitos_sergipe.xlsx
+++ b/br-se-covid19-casos-obitos/input/casos_obitos_sergipe.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/dadosabertossergipe/covid19/br-se-covid19-casos-obitos/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904E1971-AD3C-3446-B0FC-A54AE0E846BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7804B95-69A4-2948-9E5F-C02F7394BD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="26740" windowHeight="13400" xr2:uid="{E21C5369-0FE3-0A48-82AA-E24CCCB2F14B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9C9ECB-EE57-9143-A29C-BA511C905A26}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1620,6 +1620,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>44707</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>327417</v>
+      </c>
+      <c r="D61">
+        <f>D60+F60</f>
+        <v>6347</v>
+      </c>
+      <c r="E61">
+        <v>8</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>44708</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>327429</v>
+      </c>
+      <c r="D62">
+        <v>6347</v>
+      </c>
+      <c r="E62">
+        <v>12</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/br-se-covid19-casos-obitos/input/casos_obitos_sergipe.xlsx
+++ b/br-se-covid19-casos-obitos/input/casos_obitos_sergipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/dadosabertossergipe/covid19/br-se-covid19-casos-obitos/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7804B95-69A4-2948-9E5F-C02F7394BD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C4CCFF-3215-8E4A-9825-C0080E04BF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="26740" windowHeight="13400" xr2:uid="{E21C5369-0FE3-0A48-82AA-E24CCCB2F14B}"/>
   </bookViews>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9C9ECB-EE57-9143-A29C-BA511C905A26}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1661,6 +1661,66 @@
         <v>0</v>
       </c>
     </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>44709</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>327439</v>
+      </c>
+      <c r="D63">
+        <v>6348</v>
+      </c>
+      <c r="E63">
+        <v>10</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>44710</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>327442</v>
+      </c>
+      <c r="D64">
+        <v>6348</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>44711</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>327451</v>
+      </c>
+      <c r="D65">
+        <v>6348</v>
+      </c>
+      <c r="E65">
+        <v>9</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/br-se-covid19-casos-obitos/input/casos_obitos_sergipe.xlsx
+++ b/br-se-covid19-casos-obitos/input/casos_obitos_sergipe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/dadosabertossergipe/covid19/br-se-covid19-casos-obitos/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C4CCFF-3215-8E4A-9825-C0080E04BF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA6480E-F029-EC4F-BFF7-3B71049F1162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="26740" windowHeight="13400" xr2:uid="{E21C5369-0FE3-0A48-82AA-E24CCCB2F14B}"/>
   </bookViews>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9C9ECB-EE57-9143-A29C-BA511C905A26}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1721,6 +1721,466 @@
         <v>0</v>
       </c>
     </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>327458</v>
+      </c>
+      <c r="D66">
+        <v>6348</v>
+      </c>
+      <c r="E66">
+        <v>7</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>327474</v>
+      </c>
+      <c r="D67">
+        <v>6348</v>
+      </c>
+      <c r="E67">
+        <v>16</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>44714</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>327490</v>
+      </c>
+      <c r="D68">
+        <v>6348</v>
+      </c>
+      <c r="E68">
+        <v>16</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>44715</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>327517</v>
+      </c>
+      <c r="D69">
+        <v>6348</v>
+      </c>
+      <c r="E69">
+        <v>27</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>44716</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>327528</v>
+      </c>
+      <c r="D70">
+        <v>6348</v>
+      </c>
+      <c r="E70">
+        <v>11</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>44717</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>327538</v>
+      </c>
+      <c r="D71">
+        <v>6348</v>
+      </c>
+      <c r="E71">
+        <v>10</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>44718</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>327552</v>
+      </c>
+      <c r="D72">
+        <v>6348</v>
+      </c>
+      <c r="E72">
+        <v>14</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>44719</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>327574</v>
+      </c>
+      <c r="D73">
+        <v>6348</v>
+      </c>
+      <c r="E73">
+        <v>22</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>44720</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>327597</v>
+      </c>
+      <c r="D74">
+        <v>6349</v>
+      </c>
+      <c r="E74">
+        <v>23</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>44721</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>327638</v>
+      </c>
+      <c r="D75">
+        <v>6349</v>
+      </c>
+      <c r="E75">
+        <v>41</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>44722</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>327687</v>
+      </c>
+      <c r="D76">
+        <v>6350</v>
+      </c>
+      <c r="E76">
+        <v>49</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>44725</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>327737</v>
+      </c>
+      <c r="D77">
+        <v>6351</v>
+      </c>
+      <c r="E77">
+        <v>15</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>44726</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>327777</v>
+      </c>
+      <c r="D78">
+        <v>6352</v>
+      </c>
+      <c r="E78">
+        <v>40</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>44727</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>327910</v>
+      </c>
+      <c r="D79">
+        <v>6353</v>
+      </c>
+      <c r="E79">
+        <v>133</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>44728</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>327993</v>
+      </c>
+      <c r="D80">
+        <v>6353</v>
+      </c>
+      <c r="E80">
+        <v>83</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>44729</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>328042</v>
+      </c>
+      <c r="D81">
+        <v>6353</v>
+      </c>
+      <c r="E81">
+        <v>49</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>44732</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>328119</v>
+      </c>
+      <c r="D82">
+        <v>6353</v>
+      </c>
+      <c r="E82">
+        <v>23</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>44733</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>328260</v>
+      </c>
+      <c r="D83">
+        <v>6354</v>
+      </c>
+      <c r="E83">
+        <v>141</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>44734</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>328561</v>
+      </c>
+      <c r="D84">
+        <v>6354</v>
+      </c>
+      <c r="E84">
+        <v>301</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>44735</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>328744</v>
+      </c>
+      <c r="D85">
+        <v>6355</v>
+      </c>
+      <c r="E85">
+        <v>183</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>44736</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>328955</v>
+      </c>
+      <c r="D86">
+        <v>6355</v>
+      </c>
+      <c r="E86">
+        <v>211</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>44739</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>329405</v>
+      </c>
+      <c r="D87">
+        <v>6356</v>
+      </c>
+      <c r="E87">
+        <v>114</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>44740</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>329686</v>
+      </c>
+      <c r="D88">
+        <v>6357</v>
+      </c>
+      <c r="E88">
+        <v>282</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/br-se-covid19-casos-obitos/input/casos_obitos_sergipe.xlsx
+++ b/br-se-covid19-casos-obitos/input/casos_obitos_sergipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/dadosabertossergipe/covid19/br-se-covid19-casos-obitos/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA6480E-F029-EC4F-BFF7-3B71049F1162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6A86EA-98DD-A34F-8D80-99EBA28E8C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="26740" windowHeight="13400" xr2:uid="{E21C5369-0FE3-0A48-82AA-E24CCCB2F14B}"/>
   </bookViews>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9C9ECB-EE57-9143-A29C-BA511C905A26}">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2181,6 +2181,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>44741</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>330074</v>
+      </c>
+      <c r="D89">
+        <v>6358</v>
+      </c>
+      <c r="E89">
+        <v>388</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/br-se-covid19-casos-obitos/input/casos_obitos_sergipe.xlsx
+++ b/br-se-covid19-casos-obitos/input/casos_obitos_sergipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/dadosabertossergipe/covid19/br-se-covid19-casos-obitos/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6A86EA-98DD-A34F-8D80-99EBA28E8C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE37C66-D0D3-6F43-9C8B-F533870F95CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="26740" windowHeight="13400" xr2:uid="{E21C5369-0FE3-0A48-82AA-E24CCCB2F14B}"/>
   </bookViews>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9C9ECB-EE57-9143-A29C-BA511C905A26}">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2201,6 +2201,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>330327</v>
+      </c>
+      <c r="D90">
+        <v>6358</v>
+      </c>
+      <c r="E90">
+        <v>253</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/br-se-covid19-casos-obitos/input/casos_obitos_sergipe.xlsx
+++ b/br-se-covid19-casos-obitos/input/casos_obitos_sergipe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/dadosabertossergipe/covid19/br-se-covid19-casos-obitos/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE37C66-D0D3-6F43-9C8B-F533870F95CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC1F934-D3C5-2F4F-8315-6C395A1F96AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="26740" windowHeight="13400" xr2:uid="{E21C5369-0FE3-0A48-82AA-E24CCCB2F14B}"/>
+    <workbookView xWindow="27320" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{E21C5369-0FE3-0A48-82AA-E24CCCB2F14B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9C9ECB-EE57-9143-A29C-BA511C905A26}">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2221,6 +2221,106 @@
         <v>0</v>
       </c>
     </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>44746</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>331286</v>
+      </c>
+      <c r="D91">
+        <v>6360</v>
+      </c>
+      <c r="E91">
+        <v>83</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>44747</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>331729</v>
+      </c>
+      <c r="D92">
+        <v>6361</v>
+      </c>
+      <c r="E92">
+        <v>443</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>44748</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>332454</v>
+      </c>
+      <c r="D93">
+        <v>6363</v>
+      </c>
+      <c r="E93">
+        <v>725</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>44749</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>332978</v>
+      </c>
+      <c r="D94">
+        <v>6364</v>
+      </c>
+      <c r="E94">
+        <v>524</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>333606</v>
+      </c>
+      <c r="D95">
+        <v>6366</v>
+      </c>
+      <c r="E95">
+        <v>628</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/br-se-covid19-casos-obitos/input/casos_obitos_sergipe.xlsx
+++ b/br-se-covid19-casos-obitos/input/casos_obitos_sergipe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/dadosabertossergipe/covid19/br-se-covid19-casos-obitos/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC1F934-D3C5-2F4F-8315-6C395A1F96AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FCB946-142B-CA41-A56B-C4DC66F6EACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27320" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{E21C5369-0FE3-0A48-82AA-E24CCCB2F14B}"/>
+    <workbookView xWindow="19320" yWindow="0" windowWidth="19080" windowHeight="21600" xr2:uid="{E21C5369-0FE3-0A48-82AA-E24CCCB2F14B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -62,10 +62,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -91,9 +98,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,16 +416,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9C9ECB-EE57-9143-A29C-BA511C905A26}">
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C199" sqref="C199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -2321,6 +2332,2510 @@
         <v>2</v>
       </c>
     </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C96">
+        <v>334013</v>
+      </c>
+      <c r="D96">
+        <v>6368</v>
+      </c>
+      <c r="E96">
+        <v>407</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>44752</v>
+      </c>
+      <c r="C97">
+        <v>334591</v>
+      </c>
+      <c r="D97">
+        <v>6370</v>
+      </c>
+      <c r="E97">
+        <v>578</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>44753</v>
+      </c>
+      <c r="C98">
+        <v>334893</v>
+      </c>
+      <c r="D98">
+        <v>6372</v>
+      </c>
+      <c r="E98">
+        <v>302</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>44754</v>
+      </c>
+      <c r="C99">
+        <v>335387</v>
+      </c>
+      <c r="D99">
+        <v>6374</v>
+      </c>
+      <c r="E99">
+        <v>494</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>44755</v>
+      </c>
+      <c r="C100">
+        <v>335764</v>
+      </c>
+      <c r="D100">
+        <v>6376</v>
+      </c>
+      <c r="E100">
+        <v>377</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>44756</v>
+      </c>
+      <c r="C101">
+        <v>336362</v>
+      </c>
+      <c r="D101">
+        <v>6379</v>
+      </c>
+      <c r="E101">
+        <v>598</v>
+      </c>
+      <c r="F101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>44757</v>
+      </c>
+      <c r="C102">
+        <v>336799</v>
+      </c>
+      <c r="D102">
+        <v>6382</v>
+      </c>
+      <c r="E102">
+        <v>438</v>
+      </c>
+      <c r="F102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>44758</v>
+      </c>
+      <c r="C103">
+        <v>337201</v>
+      </c>
+      <c r="D103">
+        <v>6384</v>
+      </c>
+      <c r="E103">
+        <v>402</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>44759</v>
+      </c>
+      <c r="C104">
+        <v>337684</v>
+      </c>
+      <c r="D104">
+        <v>6387</v>
+      </c>
+      <c r="E104">
+        <v>483</v>
+      </c>
+      <c r="F104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>44760</v>
+      </c>
+      <c r="C105">
+        <v>337959</v>
+      </c>
+      <c r="D105">
+        <v>6389</v>
+      </c>
+      <c r="E105">
+        <v>276</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C106">
+        <v>338392</v>
+      </c>
+      <c r="D106">
+        <v>6392</v>
+      </c>
+      <c r="E106">
+        <v>437</v>
+      </c>
+      <c r="F106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>44762</v>
+      </c>
+      <c r="C107">
+        <v>338831</v>
+      </c>
+      <c r="D107">
+        <v>6395</v>
+      </c>
+      <c r="E107">
+        <v>440</v>
+      </c>
+      <c r="F107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>44763</v>
+      </c>
+      <c r="C108">
+        <v>339048</v>
+      </c>
+      <c r="D108">
+        <v>6396</v>
+      </c>
+      <c r="E108">
+        <v>217</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C109">
+        <v>339336</v>
+      </c>
+      <c r="D109">
+        <v>6399</v>
+      </c>
+      <c r="E109">
+        <v>288</v>
+      </c>
+      <c r="F109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C110">
+        <v>339596</v>
+      </c>
+      <c r="D110">
+        <v>6402</v>
+      </c>
+      <c r="E110">
+        <v>260</v>
+      </c>
+      <c r="F110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>44767</v>
+      </c>
+      <c r="C111">
+        <v>339776</v>
+      </c>
+      <c r="D111">
+        <v>6406</v>
+      </c>
+      <c r="E111">
+        <v>93</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>44768</v>
+      </c>
+      <c r="C112">
+        <v>340153</v>
+      </c>
+      <c r="D112">
+        <v>6408</v>
+      </c>
+      <c r="E112">
+        <v>377</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>44769</v>
+      </c>
+      <c r="C113">
+        <v>340406</v>
+      </c>
+      <c r="D113">
+        <v>6410</v>
+      </c>
+      <c r="E113">
+        <v>253</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>44770</v>
+      </c>
+      <c r="C114">
+        <v>340593</v>
+      </c>
+      <c r="D114">
+        <v>6411</v>
+      </c>
+      <c r="E114">
+        <v>187</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>44771</v>
+      </c>
+      <c r="C115">
+        <v>340814</v>
+      </c>
+      <c r="D115">
+        <v>6412</v>
+      </c>
+      <c r="E115">
+        <v>221</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>44772</v>
+      </c>
+      <c r="C116">
+        <v>340980</v>
+      </c>
+      <c r="D116">
+        <v>6412</v>
+      </c>
+      <c r="E116">
+        <v>166</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>44773</v>
+      </c>
+      <c r="C117">
+        <v>341059</v>
+      </c>
+      <c r="D117">
+        <v>6412</v>
+      </c>
+      <c r="E117">
+        <v>79</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>44774</v>
+      </c>
+      <c r="C118">
+        <v>341137</v>
+      </c>
+      <c r="D118">
+        <v>6413</v>
+      </c>
+      <c r="E118">
+        <v>78</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>44775</v>
+      </c>
+      <c r="C119">
+        <v>341202</v>
+      </c>
+      <c r="D119">
+        <v>6414</v>
+      </c>
+      <c r="E119">
+        <v>65</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>44776</v>
+      </c>
+      <c r="C120">
+        <v>341326</v>
+      </c>
+      <c r="D120">
+        <v>6415</v>
+      </c>
+      <c r="E120">
+        <v>124</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>44777</v>
+      </c>
+      <c r="C121">
+        <v>341427</v>
+      </c>
+      <c r="D121">
+        <v>6416</v>
+      </c>
+      <c r="E121">
+        <v>102</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>44778</v>
+      </c>
+      <c r="C122">
+        <v>341477</v>
+      </c>
+      <c r="D122">
+        <v>6417</v>
+      </c>
+      <c r="E122">
+        <v>50</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>44779</v>
+      </c>
+      <c r="C123">
+        <v>341519</v>
+      </c>
+      <c r="D123">
+        <v>6418</v>
+      </c>
+      <c r="E123">
+        <v>42</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>44780</v>
+      </c>
+      <c r="C124">
+        <v>341546</v>
+      </c>
+      <c r="D124">
+        <v>6418</v>
+      </c>
+      <c r="E124">
+        <v>27</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>44781</v>
+      </c>
+      <c r="C125">
+        <v>341576</v>
+      </c>
+      <c r="D125">
+        <v>6419</v>
+      </c>
+      <c r="E125">
+        <v>30</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>44782</v>
+      </c>
+      <c r="C126">
+        <v>341623</v>
+      </c>
+      <c r="D126">
+        <v>6420</v>
+      </c>
+      <c r="E126">
+        <v>48</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>44783</v>
+      </c>
+      <c r="C127">
+        <v>341692</v>
+      </c>
+      <c r="D127">
+        <v>6421</v>
+      </c>
+      <c r="E127">
+        <v>69</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>44784</v>
+      </c>
+      <c r="C128">
+        <v>341735</v>
+      </c>
+      <c r="D128">
+        <v>6421</v>
+      </c>
+      <c r="E128">
+        <v>43</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>44785</v>
+      </c>
+      <c r="C129">
+        <v>341800</v>
+      </c>
+      <c r="D129">
+        <v>6421</v>
+      </c>
+      <c r="E129">
+        <v>65</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>44786</v>
+      </c>
+      <c r="C130">
+        <v>341865</v>
+      </c>
+      <c r="D130">
+        <v>6422</v>
+      </c>
+      <c r="E130">
+        <v>65</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>44787</v>
+      </c>
+      <c r="C131">
+        <v>341941</v>
+      </c>
+      <c r="D131">
+        <v>6423</v>
+      </c>
+      <c r="E131">
+        <v>76</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>44788</v>
+      </c>
+      <c r="C132">
+        <v>342024</v>
+      </c>
+      <c r="D132">
+        <v>6424</v>
+      </c>
+      <c r="E132">
+        <v>85</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>44789</v>
+      </c>
+      <c r="C133">
+        <v>342161</v>
+      </c>
+      <c r="D133">
+        <v>6425</v>
+      </c>
+      <c r="E133">
+        <v>137</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>44790</v>
+      </c>
+      <c r="C134">
+        <v>342263</v>
+      </c>
+      <c r="D134">
+        <v>6426</v>
+      </c>
+      <c r="E134">
+        <v>102</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>44791</v>
+      </c>
+      <c r="C135">
+        <v>342315</v>
+      </c>
+      <c r="D135">
+        <v>6426</v>
+      </c>
+      <c r="E135">
+        <v>52</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>44792</v>
+      </c>
+      <c r="C136">
+        <v>342389</v>
+      </c>
+      <c r="D136">
+        <v>6426</v>
+      </c>
+      <c r="E136">
+        <v>74</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>44793</v>
+      </c>
+      <c r="C137">
+        <v>342514</v>
+      </c>
+      <c r="D137">
+        <v>6426</v>
+      </c>
+      <c r="E137">
+        <v>125</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>44794</v>
+      </c>
+      <c r="C138">
+        <v>342527</v>
+      </c>
+      <c r="D138">
+        <v>6426</v>
+      </c>
+      <c r="E138">
+        <v>13</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>44795</v>
+      </c>
+      <c r="C139">
+        <v>342546</v>
+      </c>
+      <c r="D139">
+        <v>6426</v>
+      </c>
+      <c r="E139">
+        <v>19</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>44796</v>
+      </c>
+      <c r="C140">
+        <v>342570</v>
+      </c>
+      <c r="D140">
+        <v>6426</v>
+      </c>
+      <c r="E140">
+        <v>24</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>44797</v>
+      </c>
+      <c r="C141">
+        <v>342577</v>
+      </c>
+      <c r="D141">
+        <v>6427</v>
+      </c>
+      <c r="E141">
+        <v>7</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>44799</v>
+      </c>
+      <c r="C142">
+        <v>342616</v>
+      </c>
+      <c r="D142">
+        <v>6429</v>
+      </c>
+      <c r="E142">
+        <v>6</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>44800</v>
+      </c>
+      <c r="C143">
+        <v>342623</v>
+      </c>
+      <c r="D143">
+        <v>6429</v>
+      </c>
+      <c r="E143">
+        <v>7</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>44801</v>
+      </c>
+      <c r="C144">
+        <v>342623</v>
+      </c>
+      <c r="D144">
+        <v>6429</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>44802</v>
+      </c>
+      <c r="C145">
+        <v>342627</v>
+      </c>
+      <c r="D145">
+        <v>6430</v>
+      </c>
+      <c r="E145">
+        <v>4</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>44803</v>
+      </c>
+      <c r="C146">
+        <v>342656</v>
+      </c>
+      <c r="D146">
+        <v>6430</v>
+      </c>
+      <c r="E146">
+        <v>29</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>44804</v>
+      </c>
+      <c r="C147">
+        <v>342732</v>
+      </c>
+      <c r="D147">
+        <v>6430</v>
+      </c>
+      <c r="E147">
+        <v>76</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>44805</v>
+      </c>
+      <c r="C148">
+        <v>342775</v>
+      </c>
+      <c r="D148">
+        <v>6430</v>
+      </c>
+      <c r="E148">
+        <v>43</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>44806</v>
+      </c>
+      <c r="C149">
+        <v>342820</v>
+      </c>
+      <c r="D149">
+        <v>6430</v>
+      </c>
+      <c r="E149">
+        <v>45</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>44807</v>
+      </c>
+      <c r="C150">
+        <v>342822</v>
+      </c>
+      <c r="D150">
+        <v>6431</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>44808</v>
+      </c>
+      <c r="C151">
+        <v>342829</v>
+      </c>
+      <c r="D151">
+        <v>6431</v>
+      </c>
+      <c r="E151">
+        <v>7</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>44809</v>
+      </c>
+      <c r="C152">
+        <v>342831</v>
+      </c>
+      <c r="D152">
+        <v>6431</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>44810</v>
+      </c>
+      <c r="C153">
+        <v>342836</v>
+      </c>
+      <c r="D153">
+        <v>6432</v>
+      </c>
+      <c r="E153">
+        <v>5</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>44811</v>
+      </c>
+      <c r="C154">
+        <v>342840</v>
+      </c>
+      <c r="D154">
+        <v>6432</v>
+      </c>
+      <c r="E154">
+        <v>4</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>44812</v>
+      </c>
+      <c r="C155">
+        <v>342847</v>
+      </c>
+      <c r="D155">
+        <v>6433</v>
+      </c>
+      <c r="E155">
+        <v>7</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>44813</v>
+      </c>
+      <c r="C156">
+        <v>342852</v>
+      </c>
+      <c r="D156">
+        <v>6433</v>
+      </c>
+      <c r="E156">
+        <v>5</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>44814</v>
+      </c>
+      <c r="C157">
+        <v>342854</v>
+      </c>
+      <c r="D157">
+        <v>6433</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>44815</v>
+      </c>
+      <c r="C158">
+        <v>342854</v>
+      </c>
+      <c r="D158">
+        <v>6433</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>44816</v>
+      </c>
+      <c r="C159">
+        <v>342855</v>
+      </c>
+      <c r="D159">
+        <v>6433</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>44817</v>
+      </c>
+      <c r="C160">
+        <v>342857</v>
+      </c>
+      <c r="D160">
+        <v>6433</v>
+      </c>
+      <c r="E160">
+        <v>3</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>44818</v>
+      </c>
+      <c r="C161">
+        <v>342859</v>
+      </c>
+      <c r="D161">
+        <v>6433</v>
+      </c>
+      <c r="E161">
+        <v>2</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>44819</v>
+      </c>
+      <c r="C162">
+        <v>342862</v>
+      </c>
+      <c r="D162">
+        <v>6434</v>
+      </c>
+      <c r="E162">
+        <v>3</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>44820</v>
+      </c>
+      <c r="C163">
+        <v>342869</v>
+      </c>
+      <c r="D163">
+        <v>6434</v>
+      </c>
+      <c r="E163">
+        <v>7</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>44821</v>
+      </c>
+      <c r="C164">
+        <v>342873</v>
+      </c>
+      <c r="D164">
+        <v>6434</v>
+      </c>
+      <c r="E164">
+        <v>4</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>44822</v>
+      </c>
+      <c r="C165">
+        <v>342873</v>
+      </c>
+      <c r="D165">
+        <v>6434</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>44823</v>
+      </c>
+      <c r="C166">
+        <v>342873</v>
+      </c>
+      <c r="D166">
+        <v>6434</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>44824</v>
+      </c>
+      <c r="C167">
+        <v>342872</v>
+      </c>
+      <c r="D167">
+        <v>6434</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>44825</v>
+      </c>
+      <c r="C168">
+        <v>342873</v>
+      </c>
+      <c r="D168">
+        <v>6434</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>44826</v>
+      </c>
+      <c r="C169">
+        <v>342878</v>
+      </c>
+      <c r="D169" s="2">
+        <v>6434</v>
+      </c>
+      <c r="E169">
+        <v>5</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>44827</v>
+      </c>
+      <c r="C170">
+        <v>342879</v>
+      </c>
+      <c r="D170" s="2">
+        <v>6434</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>44828</v>
+      </c>
+      <c r="C171">
+        <v>342880</v>
+      </c>
+      <c r="D171" s="2">
+        <v>6434</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>44829</v>
+      </c>
+      <c r="C172">
+        <v>342881</v>
+      </c>
+      <c r="D172" s="2">
+        <v>6435</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>44830</v>
+      </c>
+      <c r="C173">
+        <v>342881</v>
+      </c>
+      <c r="D173" s="2">
+        <v>6435</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>44831</v>
+      </c>
+      <c r="C174">
+        <v>342883</v>
+      </c>
+      <c r="D174" s="2">
+        <v>6435</v>
+      </c>
+      <c r="E174">
+        <v>2</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>44832</v>
+      </c>
+      <c r="C175">
+        <v>342885</v>
+      </c>
+      <c r="D175" s="2">
+        <v>6435</v>
+      </c>
+      <c r="E175">
+        <v>2</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>44833</v>
+      </c>
+      <c r="C176">
+        <v>342889</v>
+      </c>
+      <c r="D176" s="2">
+        <v>6435</v>
+      </c>
+      <c r="E176">
+        <v>4</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>44834</v>
+      </c>
+      <c r="C177">
+        <v>342889</v>
+      </c>
+      <c r="D177" s="2">
+        <v>6436</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>44835</v>
+      </c>
+      <c r="C178">
+        <v>342890</v>
+      </c>
+      <c r="D178" s="2">
+        <v>6436</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>44836</v>
+      </c>
+      <c r="C179">
+        <v>342890</v>
+      </c>
+      <c r="D179" s="2">
+        <v>6437</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>44837</v>
+      </c>
+      <c r="C180">
+        <v>342890</v>
+      </c>
+      <c r="D180" s="2">
+        <v>6437</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>44838</v>
+      </c>
+      <c r="C181">
+        <v>342892</v>
+      </c>
+      <c r="D181" s="2">
+        <v>6438</v>
+      </c>
+      <c r="E181">
+        <v>2</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>44839</v>
+      </c>
+      <c r="C182">
+        <v>342895</v>
+      </c>
+      <c r="D182" s="2">
+        <v>6438</v>
+      </c>
+      <c r="E182">
+        <v>3</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>44840</v>
+      </c>
+      <c r="C183">
+        <v>342896</v>
+      </c>
+      <c r="D183" s="2">
+        <v>6438</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>44841</v>
+      </c>
+      <c r="C184">
+        <v>342899</v>
+      </c>
+      <c r="D184" s="2">
+        <v>6439</v>
+      </c>
+      <c r="E184">
+        <v>3</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>44842</v>
+      </c>
+      <c r="C185">
+        <v>342902</v>
+      </c>
+      <c r="D185" s="2">
+        <v>6439</v>
+      </c>
+      <c r="E185">
+        <v>3</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>44843</v>
+      </c>
+      <c r="C186">
+        <v>342902</v>
+      </c>
+      <c r="D186" s="2">
+        <v>6439</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>44844</v>
+      </c>
+      <c r="C187">
+        <v>342902</v>
+      </c>
+      <c r="D187" s="2">
+        <v>6439</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>44845</v>
+      </c>
+      <c r="C188">
+        <v>342904</v>
+      </c>
+      <c r="D188" s="2">
+        <v>6439</v>
+      </c>
+      <c r="E188">
+        <v>2</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>44846</v>
+      </c>
+      <c r="C189">
+        <v>342904</v>
+      </c>
+      <c r="D189" s="2">
+        <v>6439</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>44847</v>
+      </c>
+      <c r="C190">
+        <v>342904</v>
+      </c>
+      <c r="D190" s="2">
+        <v>6439</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>44848</v>
+      </c>
+      <c r="C191">
+        <v>342904</v>
+      </c>
+      <c r="D191" s="2">
+        <v>6440</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>44849</v>
+      </c>
+      <c r="C192">
+        <v>342904</v>
+      </c>
+      <c r="D192" s="2">
+        <v>6440</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>44850</v>
+      </c>
+      <c r="C193">
+        <v>342904</v>
+      </c>
+      <c r="D193" s="2">
+        <v>6440</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>44851</v>
+      </c>
+      <c r="C194">
+        <v>342906</v>
+      </c>
+      <c r="D194" s="2">
+        <v>6440</v>
+      </c>
+      <c r="E194">
+        <v>2</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>44852</v>
+      </c>
+      <c r="C195">
+        <v>342906</v>
+      </c>
+      <c r="D195" s="2">
+        <v>6440</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>44853</v>
+      </c>
+      <c r="C196">
+        <v>342908</v>
+      </c>
+      <c r="D196" s="2">
+        <v>6440</v>
+      </c>
+      <c r="E196">
+        <v>2</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>44854</v>
+      </c>
+      <c r="C197">
+        <v>342910</v>
+      </c>
+      <c r="D197" s="2">
+        <v>6441</v>
+      </c>
+      <c r="E197">
+        <v>2</v>
+      </c>
+      <c r="F197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>44855</v>
+      </c>
+      <c r="C198">
+        <v>342911</v>
+      </c>
+      <c r="D198" s="2">
+        <v>6441</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>44856</v>
+      </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>44857</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>44858</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>44859</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>44860</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>44861</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>44862</v>
+      </c>
+      <c r="E205">
+        <v>2</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>44863</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>44864</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>44865</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>44866</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>44867</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>44868</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>44869</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>44870</v>
+      </c>
+      <c r="E213">
+        <v>3</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>44871</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>44872</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>44873</v>
+      </c>
+      <c r="E216">
+        <v>3</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>44874</v>
+      </c>
+      <c r="E217">
+        <v>6</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>44875</v>
+      </c>
+      <c r="E218">
+        <v>3</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>44876</v>
+      </c>
+      <c r="E219">
+        <v>15</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>44877</v>
+      </c>
+      <c r="E220">
+        <v>9</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>44878</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>44879</v>
+      </c>
+      <c r="E222">
+        <v>21</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>44880</v>
+      </c>
+      <c r="E223">
+        <v>31</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>44881</v>
+      </c>
+      <c r="E224">
+        <v>96</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>44882</v>
+      </c>
+      <c r="E225">
+        <v>113</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>44883</v>
+      </c>
+      <c r="E226">
+        <v>148</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>44884</v>
+      </c>
+      <c r="E227">
+        <v>121</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>44885</v>
+      </c>
+      <c r="E228">
+        <v>52</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>44886</v>
+      </c>
+      <c r="E229">
+        <v>230</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>44887</v>
+      </c>
+      <c r="E230">
+        <v>254</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>44888</v>
+      </c>
+      <c r="E231">
+        <v>497</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>44889</v>
+      </c>
+      <c r="E232">
+        <v>505</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>44890</v>
+      </c>
+      <c r="E233">
+        <v>817</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>44891</v>
+      </c>
+      <c r="E234">
+        <v>423</v>
+      </c>
+      <c r="F234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>44892</v>
+      </c>
+      <c r="E235">
+        <v>232</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>44893</v>
+      </c>
+      <c r="E236">
+        <v>321</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>44894</v>
+      </c>
+      <c r="E237">
+        <v>577</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>44895</v>
+      </c>
+      <c r="E238">
+        <v>820</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>44896</v>
+      </c>
+      <c r="E239">
+        <v>765</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>44897</v>
+      </c>
+      <c r="E240">
+        <v>995</v>
+      </c>
+      <c r="F240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>44898</v>
+      </c>
+      <c r="E241">
+        <v>311</v>
+      </c>
+      <c r="F241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>44899</v>
+      </c>
+      <c r="E242">
+        <v>595</v>
+      </c>
+      <c r="F242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>44900</v>
+      </c>
+      <c r="E243">
+        <v>297</v>
+      </c>
+      <c r="F243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>44901</v>
+      </c>
+      <c r="E244">
+        <v>373</v>
+      </c>
+      <c r="F244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>44902</v>
+      </c>
+      <c r="E245">
+        <v>611</v>
+      </c>
+      <c r="F245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>44903</v>
+      </c>
+      <c r="E246">
+        <v>290</v>
+      </c>
+      <c r="F246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>44904</v>
+      </c>
+      <c r="E247">
+        <v>641</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>44905</v>
+      </c>
+      <c r="E248">
+        <v>155</v>
+      </c>
+      <c r="F248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>44906</v>
+      </c>
+      <c r="E249">
+        <v>129</v>
+      </c>
+      <c r="F249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>44907</v>
+      </c>
+      <c r="E250">
+        <v>235</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <v>44908</v>
+      </c>
+      <c r="E251">
+        <v>498</v>
+      </c>
+      <c r="F251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <v>44909</v>
+      </c>
+      <c r="E252">
+        <v>645</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <v>44910</v>
+      </c>
+      <c r="E253">
+        <v>507</v>
+      </c>
+      <c r="F253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>44911</v>
+      </c>
+      <c r="E254">
+        <v>570</v>
+      </c>
+      <c r="F254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <v>44912</v>
+      </c>
+      <c r="E255">
+        <v>260</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <v>44913</v>
+      </c>
+      <c r="E256">
+        <v>331</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <v>44914</v>
+      </c>
+      <c r="E257">
+        <v>92</v>
+      </c>
+      <c r="F257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <v>44915</v>
+      </c>
+      <c r="E258">
+        <v>154</v>
+      </c>
+      <c r="F258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <v>44916</v>
+      </c>
+      <c r="E259">
+        <v>173</v>
+      </c>
+      <c r="F259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <v>44917</v>
+      </c>
+      <c r="E260">
+        <v>337</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>44918</v>
+      </c>
+      <c r="E261">
+        <v>323</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <v>44921</v>
+      </c>
+      <c r="E262">
+        <v>193</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>44922</v>
+      </c>
+      <c r="E263">
+        <v>125</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>44923</v>
+      </c>
+      <c r="E264">
+        <v>153</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>44924</v>
+      </c>
+      <c r="E265">
+        <v>63</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>44925</v>
+      </c>
+      <c r="E266">
+        <v>109</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>44926</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
